--- a/biology/Médecine/Luis_Martín_Santos/Luis_Martín_Santos.xlsx
+++ b/biology/Médecine/Luis_Martín_Santos/Luis_Martín_Santos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luis_Mart%C3%ADn_Santos</t>
+          <t>Luis_Martín_Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luis Martín-Santos Ribera (Larache, Maroc, 11 novembre 1924 - Vitoria, Espagne, 21 février 1964), est un écrivain et psychiatre espagnol, auteur de Tiempo de silencio, considéré comme l'un des plus importants romans espagnols du XXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luis_Mart%C3%ADn_Santos</t>
+          <t>Luis_Martín_Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du médecin militaire Leandro Martín-Santos, il naquit au Maroc mais passa la plus grande partie de son enfance à Saint-Sébastien, étudia la médecine à l'Université de Salamanque et devint docteur en psychiatrie à Madrid. En 1951 il remporta par concours le poste de directeur de l'hôpital psychiatrique de Saint-Sébastien. En 1953 il se maria et soutint sa thèse sur Dilthey, Jaspers et la compréhension du malade mental en 1955. Toujours dans le domaine de la psychiatrie, il publia en 1964 l'essai Liberté, temporalité et transfert dans la psychanalyse existentielle.
 Il s'intéressait toutefois aussi à la littérature. Durant son séjour à Madrid, il fréquenta le Café Gijón, où il fit la connaissance d'écrivains de sa génération comme Ignacio Aldecoa, Rafael Sánchez Ferlosio et Juan Benet ; il connut également Alfonso Sastre, lut Jean-Paul Sartre et s'intéressa à l'existentialisme.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luis_Mart%C3%ADn_Santos</t>
+          <t>Luis_Martín_Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dilthey, Jaspers y la comprensión del enfermo mental (Dilthey, Jaspers et la compréhension du malade mental), 1955
 Libertad, temporalidad y transferencia en el psicoanálisis existencial (Liberté, temporalité et transfert dans la psychanalyse existentielle), 1964
